--- a/output/fit_clients/fit_round_71.xlsx
+++ b/output/fit_clients/fit_round_71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9675294917.629683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003207861896522378</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.948823680594518</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9396324163033086</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.948823680594518</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4460613380.201911</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005130628934007421</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.38769830192344</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8817543845409247</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.38769830192344</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5136020651.503871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.00332944286150835</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3934129105819373</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.993166594408629</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.7293419345933071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.993166594408629</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4664094030.806154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003283164624455434</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.598766541102395</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.831705612765234</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.598766541102395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5003321627.789648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002693031426513979</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.384516724976741</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.862095738112045</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.384516724976741</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6755794804.604437</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009018423516868553</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.382341632912585</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.5035088149780135</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.382341632912585</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6316560694.960936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002232786897813989</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.4369709168252</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9593609529509259</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.4369709168252</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6583197261.757491</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005285363316961664</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.043280906157831</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9003896408073867</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.043280906157831</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4627974096.434254</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004719962314561794</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.597108632016393</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9341954896764655</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.597108632016393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5127720081.854255</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001315713362222069</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.423138917893969</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7759387963925581</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.423138917893969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7268309000.620951</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001683013116349148</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.006816418338731</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9807338641572804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.006816418338731</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6246675845.567923</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004536668845856571</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.516987978882407</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.021790509795137</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.516987978882407</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5802339433.566087</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003282942171473454</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.905416984363309</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.890348446410107</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.905416984363309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7008189029.82973</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004556813484839563</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.435835262291535</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9939669780340539</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.435835262291535</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5055145136.686608</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005371910306047575</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.98355288583885</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9084720818498221</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.98355288583885</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6188635735.775042</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002776625654255893</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.955227393426419</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9381670906013369</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.955227393426419</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6840483496.788081</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009442527280063019</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.812300989793436</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.866736575391111</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.092858092678703</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.866736575391111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3274022906.612655</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002184941000200334</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.718055388139204</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9086685484582617</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.718055388139204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5249700355.026664</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009622256882799883</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.274264641438464</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8369552325629843</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.274264641438464</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7034986956.355293</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004756192463380933</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.792034881841389</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8568350198027047</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.792034881841389</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>3980937963.465418</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004543531611624969</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.517154735520698</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7773654818955545</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.517154735520698</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7269748960.711516</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001318832947253715</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8025335145910553</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.234221412735618</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02156142428435</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.234221412735618</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6820161230.779382</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004117156221402878</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.14295836481324</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.994056767569386</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.14295836481324</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5926370526.347567</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002988321930987781</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.235572524815346</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9391573665399523</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.235572524815346</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5737796213.41381</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001422502351023357</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.309651661297168</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8106142645317229</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.309651661297168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5896780757.955847</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003082433161973196</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.831453077547644</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9361833962475589</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.831453077547644</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7888733674.64843</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004358195536219809</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.941354330919729</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9084720818498221</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.941354330919729</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6448840571.338635</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001633629628195135</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.019776930198666</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9755260362843873</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.019776930198666</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5896769126.347255</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003839644549895954</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.582093013956506</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.887110277575398</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.582093013956506</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5036066011.034638</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.00312590662901557</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>18</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.3908722926905149</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.486651387612526</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.6921502034236585</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.486651387612526</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3922960787.421604</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001052471502957889</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.999033294134671</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9242318716093088</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.999033294134671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>4877136674.416145</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002440222326019991</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.130079523859223</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8444385747789035</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.130079523859223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5350701414.18918</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005498794342709181</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.954500466347273</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7528135628366798</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.954500466347273</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5961228048.097572</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001895836209992906</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.705868351451258</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.233582243347433</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.705868351451258</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7584613793.728002</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003669756826217803</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.708552824213661</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.001472605269929</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.708552824213661</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4515394441.455594</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005488196480206998</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.79955551735671</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.005622282322444</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.79955551735671</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4529754562.882876</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004251937050768245</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.544384729842447</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8917922629049668</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.544384729842447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5547238548.066864</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002194907136621417</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.001897893804762</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8494608913306337</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.001897893804762</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5695022213.725439</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003725521823523988</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5695023212628795</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.738943127034684</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9259721114753483</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.738943127034684</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6669056990.223907</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001570283691844258</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.056985090593274</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9250441147754158</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.056985090593274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5249079244.537611</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003662164707755738</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.609730819407998</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9704742088738261</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.609730819407998</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5993639218.834514</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004594204163793421</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.927047777205536</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9174969269521978</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.927047777205536</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5359045103.203922</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001493696791952924</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>17</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.3823588247168929</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.598166936837797</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.6718446887501535</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.598166936837797</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4171506070.823382</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001347279510707292</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.090211768382333</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.951296679774935</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.090211768382333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10770641352.97744</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00414210495045537</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>13</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.832524161477661</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8300497806906378</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.832524161477661</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8697558228.496374</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002439298075731249</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8436331567465545</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.543362509225803</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.080572082774282</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.543362509225803</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5620053063.084243</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002267592197252394</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.385100064884456</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9509213206345868</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.385100064884456</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4534280498.258838</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005026621289208865</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>18</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.545476432006431</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8499860731458903</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.545476432006431</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6988016898.652978</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00252308751071366</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.118754789066868</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.026886676526338</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.118754789066868</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4861048838.054613</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.00362186125983273</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>17</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.545780969213379</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9354762387980647</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.545780969213379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7430390064.243113</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001745962479115238</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.847178318578632</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8577110894365819</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.847178318578632</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7173661491.72618</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003282356265782596</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>13</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.8932054618425024</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.822451221771327</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.156355368153465</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.822451221771327</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6480779912.408127</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005283664587571093</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.546225930071992</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8472695364655052</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.546225930071992</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7275197185.347383</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003100203977631377</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.617292292978334</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8997535501167874</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.617292292978334</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5205985869.26729</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002092706433154297</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>13</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9010676698392566</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.843110000006554</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.147635455794022</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.843110000006554</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8443522823.252583</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003574171100854667</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.669438479327204</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8190378412795499</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.669438479327204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5168360159.252529</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00265806837155272</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.400524468343483</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8192557554906523</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.400524468343483</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7773802404.894547</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003058454531156713</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.769727722604922</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8915920775334799</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.769727722604922</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4775946204.384172</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004258942453684098</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8233803016252311</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.504280039168155</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9991419675781891</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.504280039168155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4547065090.543073</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005644616115119742</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.97078093206277</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9148428379582314</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.97078093206277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6305667131.506752</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003860460180883595</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.293221835586285</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8661918558666916</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.293221835586285</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8816092256.29594</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005447304728598871</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.1021412281018488</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.316090990537438</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.3010888543849837</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.316090990537438</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4221945549.727996</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005288362097701679</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.874008577429146</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8892034542542344</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.874008577429146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5546929406.426908</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004400582171232376</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.076795584764898</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9933908088444631</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.076795584764898</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6221017051.475904</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002986576580349293</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.8598634934431071</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.843698652620741</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.114746489081353</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.843698652620741</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>4814735155.335989</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003937544914806138</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
         <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7040182089210313</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.124076604525905</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9639533851970483</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.124076604525905</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6947936444.609109</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.00227397271710765</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.344767241734513</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7115582100484712</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.344767241734513</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4218910868.494148</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001150030856393176</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.40994976561112</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9825367917051689</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.40994976561112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6715167776.70991</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003618771909245668</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.9919270949986</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8958522274372822</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.9919270949986</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3893147301.514776</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.004033475791894195</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.98910304515468</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8023708778917956</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.98910304515468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8367617223.439097</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001704091839829112</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>16</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.545541552903855</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.028746254757706</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.545541552903855</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5213223924.654762</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00125682510283725</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.017377398519905</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9543170774935378</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.017377398519905</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5759675225.555203</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004912532838419694</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>13</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.7886043488887113</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.743554790620665</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.024663586699521</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.743554790620665</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5521092228.932799</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00445186014658056</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.70931470412774</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8580232072196707</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.70931470412774</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6992908816.686042</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001872108252812808</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.715431908793271</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9210159267488847</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.715431908793271</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7899697058.923169</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004604992565698561</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.075608126754504</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9733434120627329</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.075608126754504</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6792294551.23263</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004316373319374304</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.662867227298269</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9076450086450996</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.662867227298269</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8369947436.353743</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002243011081840456</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>10</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.2178027868186139</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.098389367484763</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.4893078263609645</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.098389367484763</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7314984719.449196</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002238479022438573</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.775233824380762</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9516718908658615</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.775233824380762</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7481163817.026091</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004339524798389179</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.454558411899152</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.978289196228306</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.454558411899152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6018886969.301137</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004579492067574546</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.557120353106657</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.873526920110764</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.557120353106657</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>6925934338.419701</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.00236498337025145</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.178048148868552</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.799669521784241</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.178048148868552</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7714090210.139572</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005285495693380769</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.451265075650506</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9376518219948338</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.451265075650506</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4703627271.631085</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003665356075822149</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>20</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.120415858350299</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.239519000247655</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.2688241818826508</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.239519000247655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8573485964.795647</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002105962979899833</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.812261184572387</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9717071423598788</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.812261184572387</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4617234781.132631</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001611405833786609</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>22</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.185545314024525</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9392129848437977</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.185545314024525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7491144569.856431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005059732314679608</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5706073566249322</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.645340957221976</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8066464420495384</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.645340957221976</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7552596652.263014</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005277692039986584</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.020076285011882</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.947984256367574</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.020076285011882</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7144304187.543803</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002956326758598516</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.843996758511394</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9458324399101168</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.843996758511394</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>8002863204.919925</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004739349701822515</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.903272360588606</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8049063123266634</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.903272360588606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4296751169.335201</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003870560334806828</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.988155558549131</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.03923921423517</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.988155558549131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5820985515.290997</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001698634581261338</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.565912828500688</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9066203132951971</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.565912828500688</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5059093908.466095</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001380004006947674</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>11</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.088747217033729</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.004253248350625</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.088747217033729</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7609337993.56695</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002419340599147369</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.109240492895192</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9282461039260933</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.109240492895192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7445536989.096057</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00253508196715579</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>20</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.349759396658588</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8968479529372925</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.349759396658588</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7338081463.277032</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004094819360915302</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.891527663831657</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.853072981800094</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.11171828345811</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.853072981800094</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>9126184097.00239</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00337077925560315</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.624093651850506</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8578151413159105</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.624093651850506</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3836972409.695429</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004892034986789035</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>17</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.526641003237628</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8839612190946247</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.526641003237628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3886012918.991153</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002890628983265264</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.739208664452505</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8176838684676917</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.739208664452505</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5570100493.875078</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001366195307313689</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6033624194335229</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.83332205228966</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8745903894950358</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.83332205228966</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_71.xlsx
+++ b/output/fit_clients/fit_round_71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9675294917.629683</v>
+        <v>2374681973.416864</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003207861896522378</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
+        <v>0.09352209598198402</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02839345683685761</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1187341032.642847</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4460613380.201911</v>
+        <v>1845379289.354806</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005130628934007421</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0.1409535677554801</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04706626452568713</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>922689660.6913604</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5136020651.503871</v>
+        <v>5089648726.279732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00332944286150835</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15</v>
+        <v>0.151886452955554</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02905104858093144</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2544824454.402287</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4664094030.806154</v>
+        <v>3513217993.25058</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003283164624455434</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07530799915338586</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03921678809960473</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1756609032.436684</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5003321627.789648</v>
+        <v>2039095370.479683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002693031426513979</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1131211539399527</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04824805103155946</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1019547710.488858</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6755794804.604437</v>
+        <v>2697795462.393086</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009018423516868553</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.09354777866142662</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04522811248287772</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1348897725.090235</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6316560694.960936</v>
+        <v>3869873706.213183</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002232786897813989</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1970947532460601</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02846542229474009</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1934936999.444655</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6583197261.757491</v>
+        <v>1816125621.927564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005285363316961664</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>23</v>
+        <v>0.1514552121212575</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03362813611921904</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>908062862.9653006</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4627974096.434254</v>
+        <v>5491406657.814862</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004719962314561794</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1843725426326939</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03702575108688978</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2745703466.17164</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5127720081.854255</v>
+        <v>2892551769.178588</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001315713362222069</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1398290579739579</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04048164553016526</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1446275819.924506</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7268309000.620951</v>
+        <v>2025295019.744979</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001683013116349148</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>20</v>
+        <v>0.1919914228009381</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04036570516755527</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1012647438.549754</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6246675845.567923</v>
+        <v>3228694228.679573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004536668845856571</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.09048796950925278</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01935637624018541</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1614347208.34826</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5802339433.566087</v>
+        <v>2785348013.904879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003282942171473454</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16</v>
+        <v>0.1773828947621935</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03514460115058351</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1392674056.802989</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7008189029.82973</v>
+        <v>1448926061.029021</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004556813484839563</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>21</v>
+        <v>0.08914678016099538</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04914659088631973</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>724463104.3395205</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5055145136.686608</v>
+        <v>2730969577.348892</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005371910306047575</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23</v>
+        <v>0.1023256999227928</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04042126749738539</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1365484798.757189</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6188635735.775042</v>
+        <v>3660140277.960286</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002776625654255893</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1373530480832804</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05250401609817437</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1830070190.289972</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6840483496.788081</v>
+        <v>3157107828.914721</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009442527280063019</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>19</v>
+        <v>0.1313024965168195</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02544009727492553</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1578553933.283565</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3274022906.612655</v>
+        <v>850511474.6926748</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002184941000200334</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1831896564986719</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01835080529971998</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>425255730.1061832</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5249700355.026664</v>
+        <v>2612807802.637609</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009622256882799883</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1330226438622517</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03066920447975468</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1306403862.293999</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7034986956.355293</v>
+        <v>2450092682.253774</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004756192463380933</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13</v>
+        <v>0.07488212522205306</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04553926255967877</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1225046333.909317</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3980937963.465418</v>
+        <v>3698016462.726709</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004543531611624969</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.08809021614764516</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04979203406063446</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1849008250.994866</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7269748960.711516</v>
+        <v>1440422627.194611</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001318832947253715</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13</v>
+        <v>0.1669555999636614</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05389291133478019</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>720211309.4734446</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6820161230.779382</v>
+        <v>3722632237.567198</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004117156221402878</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>19</v>
+        <v>0.1062818468338197</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02765503239527127</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1861316105.324252</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5926370526.347567</v>
+        <v>951352587.3108824</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002988321930987781</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16</v>
+        <v>0.07786071231391532</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02622746847370347</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>475676368.7365757</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5737796213.41381</v>
+        <v>1298977175.776143</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001422502351023357</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1005437647475462</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03071552178547573</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>649488633.0960569</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5896780757.955847</v>
+        <v>4176846712.665073</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003082433161973196</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1354873394409835</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02517179702229802</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2088423357.598307</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7888733674.64843</v>
+        <v>3032684515.302238</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004358195536219809</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18</v>
+        <v>0.113259765433696</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04579138262869362</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1516342271.641772</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6448840571.338635</v>
+        <v>5601829792.667281</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001633629628195135</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.1054819494614948</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03992017446710348</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>18</v>
+      <c r="I29" t="n">
+        <v>31</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2800914802.013834</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5896769126.347255</v>
+        <v>2198373159.316475</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003839644549895954</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
+        <v>0.1312271004955095</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03228377375947589</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1099186639.620164</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5036066011.034638</v>
+        <v>1134370152.57479</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00312590662901557</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>14</v>
+        <v>0.0764464053718473</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03547638576040647</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>567185043.0938324</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3922960787.421604</v>
+        <v>1472209755.878892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001052471502957889</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09613303176770979</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03555052312869938</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>736104940.4117279</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>4877136674.416145</v>
+        <v>2724519767.728572</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002440222326019991</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16</v>
+        <v>0.1349253008136481</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0549114026660406</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1362259902.85075</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5350701414.18918</v>
+        <v>1498499122.045326</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005498794342709181</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>22</v>
+        <v>0.1019102894352228</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02554384610492516</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>749249516.9865671</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5961228048.097572</v>
+        <v>1176992460.282941</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001895836209992906</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>18</v>
+        <v>0.1078838904252917</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03453800643457994</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>588496209.8048195</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7584613793.728002</v>
+        <v>2593647484.246865</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003669756826217803</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>20</v>
+        <v>0.1721855398076551</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02221879997089083</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1296823756.482468</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4515394441.455594</v>
+        <v>2622803904.727138</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005488196480206998</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>18</v>
+        <v>0.09682972001062164</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03506845912179749</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1311402065.221276</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4529754562.882876</v>
+        <v>2159513235.478726</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004251937050768245</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08305132005467483</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03537244196158788</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1079756573.738344</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5547238548.066864</v>
+        <v>1937848033.48165</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002194907136621417</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
+        <v>0.1281113897517041</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02899547804288853</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>968924020.6057912</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5695022213.725439</v>
+        <v>1360170325.996665</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003725521823523988</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.1475868969439635</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.06001412158582456</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>680085164.1021316</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6669056990.223907</v>
+        <v>2143036031.723324</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001570283691844258</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>20</v>
+        <v>0.1358030576330682</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04354544343974317</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>17</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1071518076.022302</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5249079244.537611</v>
+        <v>2737882824.982378</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003662164707755738</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>18</v>
+        <v>0.08052266701970558</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04479655581255537</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1368941354.761978</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5993639218.834514</v>
+        <v>2319916853.973636</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004594204163793421</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>17</v>
+        <v>0.1296090604029581</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01744370546210325</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1159958493.663745</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5359045103.203922</v>
+        <v>2306556069.172991</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001493696791952924</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>19</v>
+        <v>0.08862622625256875</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03320788116765266</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1153278201.992284</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4171506070.823382</v>
+        <v>1869422232.528558</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001347279510707292</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1936245170619432</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03766556677679068</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>934711093.8646947</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10770641352.97744</v>
+        <v>5250411136.329438</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00414210495045537</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11</v>
+        <v>0.1216496315968417</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0577839889597448</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2625205609.188233</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8697558228.496374</v>
+        <v>3944283235.357791</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002439298075731249</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.158678933146039</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0478274227457962</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>19</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1972141613.550136</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5620053063.084243</v>
+        <v>3637088097.611028</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002267592197252394</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>13</v>
+        <v>0.09254882706803935</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02589689971549836</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1818544104.157363</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4534280498.258838</v>
+        <v>1519151271.812933</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005026621289208865</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1209490570233696</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0296967369754598</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>759575664.8622329</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6988016898.652978</v>
+        <v>2566325975.247446</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00252308751071366</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
+        <v>0.1389099819565115</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04219607030955183</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1283163078.230528</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4861048838.054613</v>
+        <v>974682929.363634</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00362186125983273</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1328617519202752</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03549929132805096</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>487341552.6337371</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>565</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4850046517.373086</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1295259122424117</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05488403546366327</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" t="n">
-        <v>497</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7430390064.243113</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.001745962479115238</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>17</v>
+      <c r="I52" t="n">
+        <v>29</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2425023265.033671</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7173661491.72618</v>
+        <v>3631915885.172252</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003282356265782596</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>13</v>
+        <v>0.1235233992299076</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03552948493388716</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1815957931.280255</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6480779912.408127</v>
+        <v>3848011048.563688</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005283664587571093</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1113318596134417</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03742533279152339</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1924005576.32396</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7275197185.347383</v>
+        <v>4577841644.646803</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003100203977631377</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>22</v>
+        <v>0.1463802185947741</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02493565431548853</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2288920822.671746</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5205985869.26729</v>
+        <v>1419913080.661276</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002092706433154297</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1329693118743337</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04815815032295989</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>709956594.3496379</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8443522823.252583</v>
+        <v>4501878579.240696</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003574171100854667</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1306428699273297</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02019520578542164</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2250939419.997241</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5168360159.252529</v>
+        <v>1584995352.062034</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00265806837155272</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1970867881171087</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02555784047128413</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>792497699.3274066</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7773802404.894547</v>
+        <v>3318305931.402867</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003058454531156713</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1051153267563079</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04779948010276157</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1659152974.446013</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4775946204.384172</v>
+        <v>3558907135.638454</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004258942453684098</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1684942749344214</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03289304219614322</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1779453696.668087</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4547065090.543073</v>
+        <v>2278055702.542197</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005644616115119742</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>16</v>
+        <v>0.1138017422021444</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02479112684890669</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>26</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1139027899.721611</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6305667131.506752</v>
+        <v>1493432888.886233</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003860460180883595</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>12</v>
+        <v>0.1815025215920383</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04298918964749247</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>746716426.4297189</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8816092256.29594</v>
+        <v>4450755396.521078</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005447304728598871</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>17</v>
+        <v>0.09159719811133274</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0436377329315166</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2225377740.432799</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4221945549.727996</v>
+        <v>4607766526.054585</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005288362097701679</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1834873546056709</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02855237471602195</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>22</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2303883341.522981</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5546929406.426908</v>
+        <v>4374461400.805477</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004400582171232376</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>18</v>
+        <v>0.1518024544451524</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02741215158572251</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2187230696.535889</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6221017051.475904</v>
+        <v>4570328973.329273</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002986576580349293</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>14</v>
+        <v>0.1630832644740888</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.05077033669021491</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2285164490.697699</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>4814735155.335989</v>
+        <v>3073142194.163865</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003937544914806138</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.07730707096354122</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04238782492990013</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>23</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1536571109.078998</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6947936444.609109</v>
+        <v>5330935646.293908</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00227397271710765</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>15</v>
+        <v>0.1421828981127264</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04669751279999384</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>22</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2665467899.488597</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4218910868.494148</v>
+        <v>1654948818.212159</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001150030856393176</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>17</v>
+        <v>0.1386203629458316</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03820646167308159</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>827474369.3356671</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6715167776.70991</v>
+        <v>3287878549.736328</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003618771909245668</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.0882585450720325</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04474129941887006</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1643939270.469398</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3893147301.514776</v>
+        <v>4344109565.179646</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004033475791894195</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1235522192419372</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02829694317057718</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2172054839.226532</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8367617223.439097</v>
+        <v>2203487282.007473</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001704091839829112</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>15</v>
+        <v>0.09121562261260613</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03499446569869701</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1101743554.438091</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5213223924.654762</v>
+        <v>2259384392.681568</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00125682510283725</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>16</v>
+        <v>0.07539306900842788</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05222957092131475</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1129692260.017743</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5759675225.555203</v>
+        <v>3873876103.772046</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004912532838419694</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.122816263902424</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02805594452126723</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1936938041.645821</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5521092228.932799</v>
+        <v>1808067336.292512</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00445186014658056</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>13</v>
+        <v>0.1255909991383737</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02372418824234285</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>904033650.2730459</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6992908816.686042</v>
+        <v>4479697637.2503</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001872108252812808</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0.1114673340421734</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02883804520093905</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="H76" t="n">
-        <v>14</v>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2239848823.384209</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7899697058.923169</v>
+        <v>1768292270.475344</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004604992565698561</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>25</v>
+        <v>0.1317431262439839</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02202681359256429</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>884146162.4155645</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6792294551.23263</v>
+        <v>4679633512.716279</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004316373319374304</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.09642445205393993</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03606543079344601</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2339816673.282803</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8369947436.353743</v>
+        <v>1239910079.964133</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002243011081840456</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1169381886871855</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02496249052115053</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>619955028.6159122</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7314984719.449196</v>
+        <v>5031712338.49813</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002238479022438573</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>24</v>
+        <v>0.07111653871940481</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03365245295254611</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2515856219.925882</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7481163817.026091</v>
+        <v>4285863455.574649</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004339524798389179</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1373778234504584</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03065477549987892</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2142931701.52474</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6018886969.301137</v>
+        <v>3735006209.549001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004579492067574546</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.2053050615168605</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0271058074846876</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1867503159.221798</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>6925934338.419701</v>
+        <v>1639065218.939344</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00236498337025145</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.09627699151384811</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03637826718820756</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>819532549.7646291</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7714090210.139572</v>
+        <v>2444035667.116662</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005285495693380769</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>19</v>
+        <v>0.07838426981507986</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03939247334050786</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1222017773.44005</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4703627271.631085</v>
+        <v>3480766997.004391</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003665356075822149</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1234604922091259</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03862111110932406</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1740383611.634285</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8573485964.795647</v>
+        <v>1983364447.730776</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002105962979899833</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>18</v>
+        <v>0.1163232057419361</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02248452498492328</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>991682249.0790547</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4617234781.132631</v>
+        <v>1225305083.734784</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001611405833786609</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1203589716240917</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03744462363247525</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>612652603.852356</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7491144569.856431</v>
+        <v>2341268881.730487</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005059732314679608</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.161345654495247</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03697317058360951</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1170634406.138568</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7552596652.263014</v>
+        <v>3341990355.47952</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005277692039986584</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>15</v>
+        <v>0.105428250286435</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03337042599056395</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1670995190.678255</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7144304187.543803</v>
+        <v>1494990693.05889</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002956326758598516</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>13</v>
+        <v>0.1321251664568221</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04033999146572446</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>747495324.2211115</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>8002863204.919925</v>
+        <v>1873321014.016347</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004739349701822515</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>21</v>
+        <v>0.1372661532866871</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04352962213688555</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>936660496.0633638</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4296751169.335201</v>
+        <v>1913382428.807668</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003870560334806828</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06881753200559919</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03795918951131756</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>15</v>
+      </c>
+      <c r="J92" t="n">
+        <v>956691153.9329147</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5820985515.290997</v>
+        <v>4011831111.199931</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001698634581261338</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24</v>
+        <v>0.1285509005198688</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04622915642498351</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2005915555.35364</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5059093908.466095</v>
+        <v>1722157605.9917</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001380004006947674</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>22</v>
+        <v>0.1682117019788227</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0271740235577778</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>861078765.057933</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7609337993.56695</v>
+        <v>2262813025.829868</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002419340599147369</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>18</v>
+        <v>0.1264963251640195</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03796985143424501</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1131406566.176864</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7445536989.096057</v>
+        <v>2061008475.247407</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00253508196715579</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>19</v>
+        <v>0.1418547359876141</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03201829299827096</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1030504217.989124</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7338081463.277032</v>
+        <v>4829250164.098069</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004094819360915302</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>18</v>
+        <v>0.1158775771674317</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02174865932121968</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2414625205.014722</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>9126184097.00239</v>
+        <v>2880533341.432992</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00337077925560315</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>26</v>
+        <v>0.1102914944932563</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03154693935857784</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1440266647.21304</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3836972409.695429</v>
+        <v>3222008021.536236</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004892034986789035</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09076200647196479</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03030505707749907</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1611004012.735032</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3886012918.991153</v>
+        <v>3843133493.343164</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002890628983265264</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
+        <v>0.1613180781602191</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02633158045079933</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1921566804.731531</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5570100493.875078</v>
+        <v>2813820002.624912</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001366195307313689</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>23</v>
+        <v>0.1545770179582703</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05852302384529994</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>30</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1406910065.652636</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_71.xlsx
+++ b/output/fit_clients/fit_round_71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2374681973.416864</v>
+        <v>1783421492.168886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09352209598198402</v>
+        <v>0.1018386551076172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02839345683685761</v>
+        <v>0.04205091928488985</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1187341032.642847</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1845379289.354806</v>
+        <v>2553082885.909633</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1409535677554801</v>
+        <v>0.1785078737350835</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04706626452568713</v>
+        <v>0.03812705822559172</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>922689660.6913604</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5089648726.279732</v>
+        <v>3818356545.691089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.151886452955554</v>
+        <v>0.1337615271304593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02905104858093144</v>
+        <v>0.03048867788234995</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2544824454.402287</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3513217993.25058</v>
+        <v>2992213128.215614</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07530799915338586</v>
+        <v>0.1093234751436436</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03921678809960473</v>
+        <v>0.04410432831338212</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1756609032.436684</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2039095370.479683</v>
+        <v>1987537628.44038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1131211539399527</v>
+        <v>0.09916146378154381</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04824805103155946</v>
+        <v>0.047451542714254</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1019547710.488858</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2697795462.393086</v>
+        <v>2634193675.567544</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09354777866142662</v>
+        <v>0.06350772748699599</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04522811248287772</v>
+        <v>0.0299752483439537</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1348897725.090235</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3869873706.213183</v>
+        <v>3323569247.079861</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1970947532460601</v>
+        <v>0.1607924216630519</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02846542229474009</v>
+        <v>0.03027139839713629</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1934936999.444655</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1816125621.927564</v>
+        <v>1960675048.333423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1514552121212575</v>
+        <v>0.1385563591238548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03362813611921904</v>
+        <v>0.02252555796312961</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>908062862.9653006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5491406657.814862</v>
+        <v>5582986341.318139</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1843725426326939</v>
+        <v>0.1999968505030635</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03702575108688978</v>
+        <v>0.04915396986986231</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>31</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2745703466.17164</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2892551769.178588</v>
+        <v>3963494178.488861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1398290579739579</v>
+        <v>0.1311669497808425</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04048164553016526</v>
+        <v>0.03072536590162829</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1446275819.924506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2025295019.744979</v>
+        <v>3238076822.927321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1919914228009381</v>
+        <v>0.1527685531557045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04036570516755527</v>
+        <v>0.05390140049776494</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1012647438.549754</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3228694228.679573</v>
+        <v>3565471398.403816</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09048796950925278</v>
+        <v>0.0659548150458798</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01935637624018541</v>
+        <v>0.02705339938108738</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>24</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1614347208.34826</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2785348013.904879</v>
+        <v>3073964741.321935</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1773828947621935</v>
+        <v>0.1374396069797218</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03514460115058351</v>
+        <v>0.02933124669022272</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1392674056.802989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1448926061.029021</v>
+        <v>1510654218.574642</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08914678016099538</v>
+        <v>0.08785106800099793</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04914659088631973</v>
+        <v>0.03275187053062632</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>724463104.3395205</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2730969577.348892</v>
+        <v>2347333200.115844</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1023256999227928</v>
+        <v>0.1031214004158714</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04042126749738539</v>
+        <v>0.04629291626511252</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1365484798.757189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3660140277.960286</v>
+        <v>4770374918.381451</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1373530480832804</v>
+        <v>0.1247709737977549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05250401609817437</v>
+        <v>0.04210225510569159</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1830070190.289972</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3157107828.914721</v>
+        <v>3950133230.89598</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1313024965168195</v>
+        <v>0.1700027268937363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02544009727492553</v>
+        <v>0.02442905072601304</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1578553933.283565</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>850511474.6926748</v>
+        <v>1252167745.935058</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1831896564986719</v>
+        <v>0.1857418466478847</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01835080529971998</v>
+        <v>0.02098118035131319</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>425255730.1061832</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2612807802.637609</v>
+        <v>2360763915.814932</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1330226438622517</v>
+        <v>0.1513003525468956</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03066920447975468</v>
+        <v>0.02992696805496882</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1306403862.293999</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2450092682.253774</v>
+        <v>2534692743.175776</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07488212522205306</v>
+        <v>0.08570474185333024</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04553926255967877</v>
+        <v>0.03333932220375338</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1225046333.909317</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3698016462.726709</v>
+        <v>2556686271.52826</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08809021614764516</v>
+        <v>0.09065714183831343</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04979203406063446</v>
+        <v>0.0536758615561653</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1849008250.994866</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1440422627.194611</v>
+        <v>975658567.3852087</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1669555999636614</v>
+        <v>0.1310732132033744</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05389291133478019</v>
+        <v>0.05140924922750877</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>720211309.4734446</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3722632237.567198</v>
+        <v>2769321023.68021</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1062818468338197</v>
+        <v>0.1205015761028764</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02765503239527127</v>
+        <v>0.03594439656138802</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>21</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1861316105.324252</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>951352587.3108824</v>
+        <v>931999329.2036893</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07786071231391532</v>
+        <v>0.1217148556234391</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02622746847370347</v>
+        <v>0.02562916188666838</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>475676368.7365757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1298977175.776143</v>
+        <v>994443993.0732969</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1005437647475462</v>
+        <v>0.0851235899467641</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03071552178547573</v>
+        <v>0.03436554526221304</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>649488633.0960569</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4176846712.665073</v>
+        <v>3020526760.60082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1354873394409835</v>
+        <v>0.1330175188102422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02517179702229802</v>
+        <v>0.02250765256868509</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2088423357.598307</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3032684515.302238</v>
+        <v>3146546888.11241</v>
       </c>
       <c r="F28" t="n">
-        <v>0.113259765433696</v>
+        <v>0.1501846574967801</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04579138262869362</v>
+        <v>0.03570498327200072</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>23</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1516342271.641772</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5601829792.667281</v>
+        <v>5030610045.398949</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1054819494614948</v>
+        <v>0.1382048333950497</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03992017446710348</v>
+        <v>0.04103777390402965</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>31</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2800914802.013834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2198373159.316475</v>
+        <v>1982378442.61322</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1312271004955095</v>
+        <v>0.0985511281662296</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03228377375947589</v>
+        <v>0.02437626374872804</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1099186639.620164</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1134370152.57479</v>
+        <v>1172368139.416389</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0764464053718473</v>
+        <v>0.1003309853553959</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03547638576040647</v>
+        <v>0.04805011352098974</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>567185043.0938324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1472209755.878892</v>
+        <v>1288805834.901284</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09613303176770979</v>
+        <v>0.1094907569579918</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03555052312869938</v>
+        <v>0.02811289836141186</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>736104940.4117279</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2724519767.728572</v>
+        <v>2521013309.468891</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1349253008136481</v>
+        <v>0.1350825507232597</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0549114026660406</v>
+        <v>0.05760223221866472</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1362259902.85075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1498499122.045326</v>
+        <v>1297536678.276832</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1019102894352228</v>
+        <v>0.106841963405854</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02554384610492516</v>
+        <v>0.02359726987231468</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>749249516.9865671</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1176992460.282941</v>
+        <v>1098486492.282914</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1078838904252917</v>
+        <v>0.08866148012334148</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03453800643457994</v>
+        <v>0.04505957407308245</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>588496209.8048195</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2593647484.246865</v>
+        <v>1977726044.930154</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1721855398076551</v>
+        <v>0.1677567952412516</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02221879997089083</v>
+        <v>0.01942109923999088</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1296823756.482468</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2622803904.727138</v>
+        <v>2463511063.663282</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09682972001062164</v>
+        <v>0.1101960064293712</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03506845912179749</v>
+        <v>0.03361509912128994</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1311402065.221276</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2159513235.478726</v>
+        <v>1560000793.381305</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08305132005467483</v>
+        <v>0.1021252979876429</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03537244196158788</v>
+        <v>0.03405697589178772</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1079756573.738344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1937848033.48165</v>
+        <v>1690503243.150478</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1281113897517041</v>
+        <v>0.1551769986675245</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02899547804288853</v>
+        <v>0.03303517136308946</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>968924020.6057912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1360170325.996665</v>
+        <v>1182262038.081102</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1475868969439635</v>
+        <v>0.1003750788999733</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06001412158582456</v>
+        <v>0.04967694772972508</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>680085164.1021316</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2143036031.723324</v>
+        <v>1973257842.053424</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1358030576330682</v>
+        <v>0.1588840076915303</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04354544343974317</v>
+        <v>0.02914480878853109</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>17</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1071518076.022302</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2737882824.982378</v>
+        <v>3742277797.464475</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08052266701970558</v>
+        <v>0.1093371135069312</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04479655581255537</v>
+        <v>0.03904613545942459</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1368941354.761978</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2319916853.973636</v>
+        <v>2987111496.276518</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1296090604029581</v>
+        <v>0.1679368682018851</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01744370546210325</v>
+        <v>0.02533629087703129</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>25</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1159958493.663745</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2306556069.172991</v>
+        <v>2070990141.400412</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08862622625256875</v>
+        <v>0.08447363719933809</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03320788116765266</v>
+        <v>0.02520070629494373</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1153278201.992284</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1869422232.528558</v>
+        <v>1918304274.317217</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1936245170619432</v>
+        <v>0.1876864681165406</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03766556677679068</v>
+        <v>0.03680216787690353</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>934711093.8646947</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5250411136.329438</v>
+        <v>3674501123.497123</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1216496315968417</v>
+        <v>0.1727608668271783</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0577839889597448</v>
+        <v>0.04931274364507173</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>25</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2625205609.188233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3944283235.357791</v>
+        <v>3912669128.234251</v>
       </c>
       <c r="F47" t="n">
-        <v>0.158678933146039</v>
+        <v>0.1757129405902073</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0478274227457962</v>
+        <v>0.03703839162523832</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1972141613.550136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3637088097.611028</v>
+        <v>3177611240.048936</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09254882706803935</v>
+        <v>0.0797692356418173</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02589689971549836</v>
+        <v>0.02981326086852748</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>24</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1818544104.157363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1519151271.812933</v>
+        <v>1233570355.315998</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1209490570233696</v>
+        <v>0.1614842407658281</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0296967369754598</v>
+        <v>0.03459033739325706</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>759575664.8622329</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2566325975.247446</v>
+        <v>3243643731.663843</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1389099819565115</v>
+        <v>0.1188747896437785</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04219607030955183</v>
+        <v>0.04289371349184766</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>24</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1283163078.230528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974682929.363634</v>
+        <v>1147843356.78022</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1328617519202752</v>
+        <v>0.1774164975347604</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03549929132805096</v>
+        <v>0.03281746604550428</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>487341552.6337371</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4850046517.373086</v>
+        <v>4601355846.719913</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1295259122424117</v>
+        <v>0.09505752758824698</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05488403546366327</v>
+        <v>0.04003170179964047</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>29</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2425023265.033671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3631915885.172252</v>
+        <v>2857122632.937045</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1235233992299076</v>
+        <v>0.1604611918404526</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03552948493388716</v>
+        <v>0.0351399207385398</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1815957931.280255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3848011048.563688</v>
+        <v>3827607770.077602</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1113318596134417</v>
+        <v>0.1322494529445887</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03742533279152339</v>
+        <v>0.04372317815680996</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>24</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1924005576.32396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4577841644.646803</v>
+        <v>3522660340.694711</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1463802185947741</v>
+        <v>0.1836223496439645</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02493565431548853</v>
+        <v>0.02097550570607333</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2288920822.671746</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1419913080.661276</v>
+        <v>1873281852.581997</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1329693118743337</v>
+        <v>0.1419191597398148</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04815815032295989</v>
+        <v>0.05075640323556332</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>709956594.3496379</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4501878579.240696</v>
+        <v>3047448923.464442</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1306428699273297</v>
+        <v>0.1266084767480738</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02019520578542164</v>
+        <v>0.01667241388649541</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>22</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2250939419.997241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1584995352.062034</v>
+        <v>1745066827.070915</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1970867881171087</v>
+        <v>0.1224781760067521</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02555784047128413</v>
+        <v>0.031959461502457</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>792497699.3274066</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3318305931.402867</v>
+        <v>4463409708.493304</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1051153267563079</v>
+        <v>0.1221915680184942</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04779948010276157</v>
+        <v>0.04693409113583964</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1659152974.446013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3558907135.638454</v>
+        <v>3316296745.175714</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1684942749344214</v>
+        <v>0.1847575628500573</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03289304219614322</v>
+        <v>0.03165561635138819</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>22</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1779453696.668087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2278055702.542197</v>
+        <v>2546498103.457985</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1138017422021444</v>
+        <v>0.1239979785843123</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02479112684890669</v>
+        <v>0.02970063740069853</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1139027899.721611</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1493432888.886233</v>
+        <v>1355497933.376244</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1815025215920383</v>
+        <v>0.1798272779502766</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04298918964749247</v>
+        <v>0.04541341276061405</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>746716426.4297189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4450755396.521078</v>
+        <v>5587695360.800191</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09159719811133274</v>
+        <v>0.07900155650525428</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0436377329315166</v>
+        <v>0.0370995751291156</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>21</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2225377740.432799</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4607766526.054585</v>
+        <v>4132829458.6518</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1834873546056709</v>
+        <v>0.1204849716150768</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02855237471602195</v>
+        <v>0.03119904253831733</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>22</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2303883341.522981</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4374461400.805477</v>
+        <v>5583029782.885236</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1518024544451524</v>
+        <v>0.116785038512594</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02741215158572251</v>
+        <v>0.02611237449299507</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2187230696.535889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4570328973.329273</v>
+        <v>5135675249.584892</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1630832644740888</v>
+        <v>0.1356034727273763</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05077033669021491</v>
+        <v>0.03414770011871267</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>21</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2285164490.697699</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3073142194.163865</v>
+        <v>2864892730.029213</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07730707096354122</v>
+        <v>0.07051984342720571</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04238782492990013</v>
+        <v>0.04367732628575451</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>23</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1536571109.078998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5330935646.293908</v>
+        <v>5386248505.460788</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1421828981127264</v>
+        <v>0.1277831626451195</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04669751279999384</v>
+        <v>0.04093072488571778</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>22</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2665467899.488597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1654948818.212159</v>
+        <v>1756689648.000819</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1386203629458316</v>
+        <v>0.1641800494609888</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03820646167308159</v>
+        <v>0.04501661630262871</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>827474369.3356671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3287878549.736328</v>
+        <v>3128979005.991422</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0882585450720325</v>
+        <v>0.1032724993858723</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04474129941887006</v>
+        <v>0.03032593036355406</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>20</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1643939270.469398</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4344109565.179646</v>
+        <v>4466460333.662506</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1235522192419372</v>
+        <v>0.1149702325849852</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02829694317057718</v>
+        <v>0.02506707718916644</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>26</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2172054839.226532</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2203487282.007473</v>
+        <v>2254401557.565256</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09121562261260613</v>
+        <v>0.0801461452347443</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03499446569869701</v>
+        <v>0.033984777928066</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1101743554.438091</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2259384392.681568</v>
+        <v>2216530705.609474</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07539306900842788</v>
+        <v>0.08798902595546207</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05222957092131475</v>
+        <v>0.04402000870509667</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>27</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1129692260.017743</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3873876103.772046</v>
+        <v>2809683803.122362</v>
       </c>
       <c r="F74" t="n">
-        <v>0.122816263902424</v>
+        <v>0.1419133946352639</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02805594452126723</v>
+        <v>0.03307204225443459</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>25</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1936938041.645821</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1808067336.292512</v>
+        <v>1766173196.739676</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1255909991383737</v>
+        <v>0.1261498537865547</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02372418824234285</v>
+        <v>0.02376716990934519</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>904033650.2730459</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4479697637.2503</v>
+        <v>3875604748.636256</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1114673340421734</v>
+        <v>0.1155709757911019</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02883804520093905</v>
+        <v>0.03141248814035025</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2239848823.384209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1768292270.475344</v>
+        <v>1390293393.063296</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1317431262439839</v>
+        <v>0.1864229350541654</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02202681359256429</v>
+        <v>0.03127652274653436</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>884146162.4155645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4679633512.716279</v>
+        <v>3261350860.272802</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09642445205393993</v>
+        <v>0.08793941044787341</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03606543079344601</v>
+        <v>0.05360144060191087</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>27</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2339816673.282803</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1239910079.964133</v>
+        <v>1860542943.945994</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1169381886871855</v>
+        <v>0.1509696838577266</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02496249052115053</v>
+        <v>0.03296590896961836</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>619955028.6159122</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5031712338.49813</v>
+        <v>3553554793.249641</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07111653871940481</v>
+        <v>0.1076336849553468</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03365245295254611</v>
+        <v>0.03377243927512126</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2515856219.925882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4285863455.574649</v>
+        <v>4497823449.883571</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1373778234504584</v>
+        <v>0.131990324838531</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03065477549987892</v>
+        <v>0.02646129998681747</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2142931701.52474</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3735006209.549001</v>
+        <v>4216701570.061491</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2053050615168605</v>
+        <v>0.1951998592318774</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0271058074846876</v>
+        <v>0.02421564884091344</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>25</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1867503159.221798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1639065218.939344</v>
+        <v>2189621137.081038</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09627699151384811</v>
+        <v>0.1577241093131548</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03637826718820756</v>
+        <v>0.04168074347902968</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>819532549.7646291</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2444035667.116662</v>
+        <v>1985072198.639998</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07838426981507986</v>
+        <v>0.1139100081202634</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03939247334050786</v>
+        <v>0.03923980581051827</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1222017773.44005</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3480766997.004391</v>
+        <v>2377804775.743419</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1234604922091259</v>
+        <v>0.1189699162005893</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03862111110932406</v>
+        <v>0.04178262549580509</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>27</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1740383611.634285</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1983364447.730776</v>
+        <v>2111360886.92903</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1163232057419361</v>
+        <v>0.1536006217024405</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02248452498492328</v>
+        <v>0.01733745318691573</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>991682249.0790547</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1225305083.734784</v>
+        <v>1208621593.093968</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1203589716240917</v>
+        <v>0.1750613783499444</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03744462363247525</v>
+        <v>0.0436770171657827</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>612652603.852356</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2341268881.730487</v>
+        <v>3612399714.115977</v>
       </c>
       <c r="F88" t="n">
-        <v>0.161345654495247</v>
+        <v>0.1463210117122928</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03697317058360951</v>
+        <v>0.02568666379571864</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1170634406.138568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3341990355.47952</v>
+        <v>3155842546.600292</v>
       </c>
       <c r="F89" t="n">
-        <v>0.105428250286435</v>
+        <v>0.1126624998995336</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03337042599056395</v>
+        <v>0.02606967229242017</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>24</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1670995190.678255</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1494990693.05889</v>
+        <v>1490114866.294276</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1321251664568221</v>
+        <v>0.1291354847410089</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04033999146572446</v>
+        <v>0.05611889777906891</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>747495324.2211115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1873321014.016347</v>
+        <v>1960766689.221726</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1372661532866871</v>
+        <v>0.1382660608855639</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04352962213688555</v>
+        <v>0.05113416199657071</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>936660496.0633638</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1913382428.807668</v>
+        <v>2731822695.939691</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06881753200559919</v>
+        <v>0.0817569639342112</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03795918951131756</v>
+        <v>0.04356053249032227</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>956691153.9329147</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4011831111.199931</v>
+        <v>4105097817.091602</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1285509005198688</v>
+        <v>0.1092537608085272</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04622915642498351</v>
+        <v>0.04569803515381671</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>21</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2005915555.35364</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1722157605.9917</v>
+        <v>2150248868.408442</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1682117019788227</v>
+        <v>0.1643916021108003</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0271740235577778</v>
+        <v>0.0304867255716307</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>861078765.057933</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2262813025.829868</v>
+        <v>2675745282.185542</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1264963251640195</v>
+        <v>0.1005125972595563</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03796985143424501</v>
+        <v>0.04679869375843578</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1131406566.176864</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2061008475.247407</v>
+        <v>2336075826.644235</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1418547359876141</v>
+        <v>0.1102820222101969</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03201829299827096</v>
+        <v>0.03328858328067821</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1030504217.989124</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4829250164.098069</v>
+        <v>4794216942.240244</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1158775771674317</v>
+        <v>0.1111244778930302</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02174865932121968</v>
+        <v>0.02689602535645027</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>23</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2414625205.014722</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2880533341.432992</v>
+        <v>3764225111.091729</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1102914944932563</v>
+        <v>0.1144749438222533</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03154693935857784</v>
+        <v>0.01976378337374182</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>19</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1440266647.21304</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3222008021.536236</v>
+        <v>2992268832.112144</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09076200647196479</v>
+        <v>0.1233261026532698</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03030505707749907</v>
+        <v>0.0292735403981118</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1611004012.735032</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3843133493.343164</v>
+        <v>4456233248.742093</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1613180781602191</v>
+        <v>0.1478637733414338</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02633158045079933</v>
+        <v>0.02238392442821422</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>21</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1921566804.731531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2813820002.624912</v>
+        <v>2207026283.018023</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1545770179582703</v>
+        <v>0.2231768469938848</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05852302384529994</v>
+        <v>0.05516488154321326</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>30</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1406910065.652636</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_71.xlsx
+++ b/output/fit_clients/fit_round_71.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1783421492.168886</v>
+        <v>1524585345.433059</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1018386551076172</v>
+        <v>0.07786314544623199</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04205091928488985</v>
+        <v>0.03602392796351112</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2553082885.909633</v>
+        <v>1673943009.671597</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1785078737350835</v>
+        <v>0.1250415897716053</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03812705822559172</v>
+        <v>0.04452643976968167</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3818356545.691089</v>
+        <v>3978130591.422196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1337615271304593</v>
+        <v>0.1286244113365409</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03048867788234995</v>
+        <v>0.03122798003907939</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2992213128.215614</v>
+        <v>4042184058.04712</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1093234751436436</v>
+        <v>0.1062023925123924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04410432831338212</v>
+        <v>0.05054740247170281</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1987537628.44038</v>
+        <v>1989710181.654155</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09916146378154381</v>
+        <v>0.128275870642313</v>
       </c>
       <c r="G6" t="n">
-        <v>0.047451542714254</v>
+        <v>0.05659116845787886</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2634193675.567544</v>
+        <v>1914501972.076703</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06350772748699599</v>
+        <v>0.09453790632396263</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0299752483439537</v>
+        <v>0.04951229528948187</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3323569247.079861</v>
+        <v>2760179375.205821</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1607924216630519</v>
+        <v>0.2048587964977993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03027139839713629</v>
+        <v>0.03332915589617844</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1960675048.333423</v>
+        <v>2016942781.190138</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1385563591238548</v>
+        <v>0.174691161996756</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02252555796312961</v>
+        <v>0.02434532964869627</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5582986341.318139</v>
+        <v>3684337698.754558</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1999968505030635</v>
+        <v>0.1589358310597587</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04915396986986231</v>
+        <v>0.04515921179092</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3963494178.488861</v>
+        <v>3996083298.839821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1311669497808425</v>
+        <v>0.1185458847415204</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03072536590162829</v>
+        <v>0.03449077783084034</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3238076822.927321</v>
+        <v>2354884320.328369</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1527685531557045</v>
+        <v>0.1674132487399315</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05390140049776494</v>
+        <v>0.04577340150647942</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3565471398.403816</v>
+        <v>4833214249.331289</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0659548150458798</v>
+        <v>0.08631477779143489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02705339938108738</v>
+        <v>0.02790451512103224</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3073964741.321935</v>
+        <v>2359027354.313995</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1374396069797218</v>
+        <v>0.1140904982617307</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02933124669022272</v>
+        <v>0.03333006191207509</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1510654218.574642</v>
+        <v>1503351022.623431</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08785106800099793</v>
+        <v>0.1090227276997971</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03275187053062632</v>
+        <v>0.04194183083630187</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2347333200.115844</v>
+        <v>2431095652.90253</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1031214004158714</v>
+        <v>0.09359560025773664</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04629291626511252</v>
+        <v>0.05183555065816694</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4770374918.381451</v>
+        <v>4869142646.952877</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1247709737977549</v>
+        <v>0.1199870204101842</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04210225510569159</v>
+        <v>0.0416343141289849</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3950133230.89598</v>
+        <v>2456514466.307598</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1700027268937363</v>
+        <v>0.1263215731538268</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02442905072601304</v>
+        <v>0.02203093962102669</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1252167745.935058</v>
+        <v>1074648126.148044</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1857418466478847</v>
+        <v>0.1791836835354036</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02098118035131319</v>
+        <v>0.02098735235673629</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2360763915.814932</v>
+        <v>1890794486.291018</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1513003525468956</v>
+        <v>0.1062254563548765</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02992696805496882</v>
+        <v>0.02932564436427455</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2534692743.175776</v>
+        <v>2206106950.990511</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08570474185333024</v>
+        <v>0.06403431523195445</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03333932220375338</v>
+        <v>0.04005597705627895</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2556686271.52826</v>
+        <v>2807738578.05117</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09065714183831343</v>
+        <v>0.09403693430302716</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0536758615561653</v>
+        <v>0.05168015864964954</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>975658567.3852087</v>
+        <v>1277727157.829552</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1310732132033744</v>
+        <v>0.1430625211596874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05140924922750877</v>
+        <v>0.03842315061755865</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2769321023.68021</v>
+        <v>4101278854.892341</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1205015761028764</v>
+        <v>0.1117159507459705</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03594439656138802</v>
+        <v>0.03011066264563835</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>931999329.2036893</v>
+        <v>1453752298.745975</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1217148556234391</v>
+        <v>0.09606523812802305</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02562916188666838</v>
+        <v>0.02019674695031829</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>994443993.0732969</v>
+        <v>1443624366.055185</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0851235899467641</v>
+        <v>0.09394384691082534</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03436554526221304</v>
+        <v>0.03184223705404111</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3020526760.60082</v>
+        <v>3754693109.163313</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1330175188102422</v>
+        <v>0.136480395277133</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02250765256868509</v>
+        <v>0.01853732508414304</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3146546888.11241</v>
+        <v>2359918763.656683</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1501846574967801</v>
+        <v>0.09152533342768504</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03570498327200072</v>
+        <v>0.03435304703593902</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5030610045.398949</v>
+        <v>5174411783.437519</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1382048333950497</v>
+        <v>0.09712222593584646</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04103777390402965</v>
+        <v>0.03301808536067481</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1982378442.61322</v>
+        <v>1457240792.879205</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0985511281662296</v>
+        <v>0.1307781504242299</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02437626374872804</v>
+        <v>0.04029104101795481</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1172368139.416389</v>
+        <v>937472984.6773707</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1003309853553959</v>
+        <v>0.1088339753757173</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04805011352098974</v>
+        <v>0.04312585978552837</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1288805834.901284</v>
+        <v>1147041100.183356</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1094907569579918</v>
+        <v>0.1171397869355449</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02811289836141186</v>
+        <v>0.03714108573433033</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2521013309.468891</v>
+        <v>2229321804.565507</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1350825507232597</v>
+        <v>0.1552571090333399</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05760223221866472</v>
+        <v>0.05642416062057829</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1297536678.276832</v>
+        <v>1547595175.008177</v>
       </c>
       <c r="F34" t="n">
-        <v>0.106841963405854</v>
+        <v>0.1173100324513695</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02359726987231468</v>
+        <v>0.0277644880789153</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1098486492.282914</v>
+        <v>1157763073.05397</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08866148012334148</v>
+        <v>0.1079024881515215</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04505957407308245</v>
+        <v>0.03353286762987789</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1977726044.930154</v>
+        <v>2618146484.423292</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1677567952412516</v>
+        <v>0.1178227196828547</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01942109923999088</v>
+        <v>0.02645927504978516</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2463511063.663282</v>
+        <v>1913888980.693327</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1101960064293712</v>
+        <v>0.09330519275253479</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03361509912128994</v>
+        <v>0.02834408113105939</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1560000793.381305</v>
+        <v>1914891832.384314</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1021252979876429</v>
+        <v>0.1072979534356353</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03405697589178772</v>
+        <v>0.02894455126996887</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1690503243.150478</v>
+        <v>2139333853.637725</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1551769986675245</v>
+        <v>0.1319881344244321</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03303517136308946</v>
+        <v>0.02986801017208794</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1182262038.081102</v>
+        <v>1430393706.716915</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1003750788999733</v>
+        <v>0.1505302183107689</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04967694772972508</v>
+        <v>0.05155122304202713</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1973257842.053424</v>
+        <v>2396841014.624353</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1588840076915303</v>
+        <v>0.1122911017831408</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02914480878853109</v>
+        <v>0.03686024762110105</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3742277797.464475</v>
+        <v>2788683433.721327</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1093371135069312</v>
+        <v>0.07802022190288765</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03904613545942459</v>
+        <v>0.0420353378433849</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2987111496.276518</v>
+        <v>2376281107.613063</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1679368682018851</v>
+        <v>0.1629397089265531</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02533629087703129</v>
+        <v>0.02574811342115556</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2070990141.400412</v>
+        <v>2127000679.471271</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08447363719933809</v>
+        <v>0.09598442117263437</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02520070629494373</v>
+        <v>0.03612454049627112</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1918304274.317217</v>
+        <v>2365044170.630824</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1876864681165406</v>
+        <v>0.1534903446864817</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03680216787690353</v>
+        <v>0.04063844074130544</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3674501123.497123</v>
+        <v>3772844777.897222</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1727608668271783</v>
+        <v>0.1468368948828562</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04931274364507173</v>
+        <v>0.04147380883163297</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3912669128.234251</v>
+        <v>4197865369.814329</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1757129405902073</v>
+        <v>0.160878200060931</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03703839162523832</v>
+        <v>0.03749268439107016</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3177611240.048936</v>
+        <v>3729401110.778355</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0797692356418173</v>
+        <v>0.08736876646134842</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02981326086852748</v>
+        <v>0.02552129617598654</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1233570355.315998</v>
+        <v>1564943895.135342</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1614842407658281</v>
+        <v>0.1790323958733812</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03459033739325706</v>
+        <v>0.04231794734179587</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3243643731.663843</v>
+        <v>4093602017.9188</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1188747896437785</v>
+        <v>0.153364280727791</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04289371349184766</v>
+        <v>0.03773510679008818</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1147843356.78022</v>
+        <v>1201585784.655967</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1774164975347604</v>
+        <v>0.1203832778487527</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03281746604550428</v>
+        <v>0.03538757222851999</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4601355846.719913</v>
+        <v>4907653938.356618</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09505752758824698</v>
+        <v>0.1292551899533544</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04003170179964047</v>
+        <v>0.05264265371374274</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2857122632.937045</v>
+        <v>3542506665.987855</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1604611918404526</v>
+        <v>0.1589618694336928</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0351399207385398</v>
+        <v>0.02930624879168014</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3827607770.077602</v>
+        <v>3394390139.234735</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1322494529445887</v>
+        <v>0.1663401596552906</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04372317815680996</v>
+        <v>0.04886517255208077</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3522660340.694711</v>
+        <v>3552194500.452201</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1836223496439645</v>
+        <v>0.2097203410928614</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02097550570607333</v>
+        <v>0.03059475176264064</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1873281852.581997</v>
+        <v>1831987649.335261</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1419191597398148</v>
+        <v>0.1110491024802694</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05075640323556332</v>
+        <v>0.04801831177845208</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3047448923.464442</v>
+        <v>3937110332.628359</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1266084767480738</v>
+        <v>0.1174582619554273</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01667241388649541</v>
+        <v>0.02315875866346499</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1745066827.070915</v>
+        <v>1738384992.791758</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1224781760067521</v>
+        <v>0.1879044582019947</v>
       </c>
       <c r="G58" t="n">
-        <v>0.031959461502457</v>
+        <v>0.03190973572947844</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4463409708.493304</v>
+        <v>3629019627.116365</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1221915680184942</v>
+        <v>0.08187426376905063</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04693409113583964</v>
+        <v>0.04457061607584577</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3316296745.175714</v>
+        <v>3208457381.810421</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1847575628500573</v>
+        <v>0.1248405115920474</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03165561635138819</v>
+        <v>0.02224754701497396</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2546498103.457985</v>
+        <v>2266295520.38846</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1239979785843123</v>
+        <v>0.1313332849619988</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02970063740069853</v>
+        <v>0.02832534409900603</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1355497933.376244</v>
+        <v>1414138656.057846</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1798272779502766</v>
+        <v>0.168833555447871</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04541341276061405</v>
+        <v>0.04532299982660338</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5587695360.800191</v>
+        <v>4190506047.038858</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07900155650525428</v>
+        <v>0.09691498621101681</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0370995751291156</v>
+        <v>0.03135368526592373</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4132829458.6518</v>
+        <v>4944865803.349137</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1204849716150768</v>
+        <v>0.1544982713983745</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03119904253831733</v>
+        <v>0.02964043121295134</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5583029782.885236</v>
+        <v>5481741586.150698</v>
       </c>
       <c r="F65" t="n">
-        <v>0.116785038512594</v>
+        <v>0.1208879195775873</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02611237449299507</v>
+        <v>0.02609051577132691</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5135675249.584892</v>
+        <v>4329539790.735537</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1356034727273763</v>
+        <v>0.1314251379015559</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03414770011871267</v>
+        <v>0.03982314572799043</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2864892730.029213</v>
+        <v>2198973136.382647</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07051984342720571</v>
+        <v>0.07584987295731001</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04367732628575451</v>
+        <v>0.04667998051456225</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5386248505.460788</v>
+        <v>4505741552.210798</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1277831626451195</v>
+        <v>0.1532465395495851</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04093072488571778</v>
+        <v>0.04776240441843477</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1756689648.000819</v>
+        <v>2086033018.159401</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1641800494609888</v>
+        <v>0.1263009343220724</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04501661630262871</v>
+        <v>0.05451637205934987</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3128979005.991422</v>
+        <v>3690957964.213103</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1032724993858723</v>
+        <v>0.07777808670677802</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03032593036355406</v>
+        <v>0.04023981851852475</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4466460333.662506</v>
+        <v>3426737975.322429</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1149702325849852</v>
+        <v>0.1234057839794662</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02506707718916644</v>
+        <v>0.0230110653326606</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2254401557.565256</v>
+        <v>2124577695.307127</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0801461452347443</v>
+        <v>0.1009786328843797</v>
       </c>
       <c r="G72" t="n">
-        <v>0.033984777928066</v>
+        <v>0.03934410065842583</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2216530705.609474</v>
+        <v>3117781915.922625</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08798902595546207</v>
+        <v>0.07309763035167999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04402000870509667</v>
+        <v>0.03961948502997627</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2809683803.122362</v>
+        <v>3109506657.758109</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1419133946352639</v>
+        <v>0.1393311279631872</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03307204225443459</v>
+        <v>0.02786538216034251</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1766173196.739676</v>
+        <v>1537488894.937863</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1261498537865547</v>
+        <v>0.1483826372008243</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02376716990934519</v>
+        <v>0.02601172635750101</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3875604748.636256</v>
+        <v>4339589515.81755</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1155709757911019</v>
+        <v>0.09018746249380855</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03141248814035025</v>
+        <v>0.025929452355268</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1390293393.063296</v>
+        <v>1420819210.660516</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1864229350541654</v>
+        <v>0.1525278595209991</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03127652274653436</v>
+        <v>0.02260706217327813</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3261350860.272802</v>
+        <v>3422062723.106059</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08793941044787341</v>
+        <v>0.1110618409729967</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05360144060191087</v>
+        <v>0.05171966669581005</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1860542943.945994</v>
+        <v>1708389829.717175</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1509696838577266</v>
+        <v>0.1114588520352197</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03296590896961836</v>
+        <v>0.03542641664656263</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3553554793.249641</v>
+        <v>5002347033.113072</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1076336849553468</v>
+        <v>0.09101158986867579</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03377243927512126</v>
+        <v>0.03032500410807112</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4497823449.883571</v>
+        <v>3858805680.01519</v>
       </c>
       <c r="F81" t="n">
-        <v>0.131990324838531</v>
+        <v>0.08488521618234432</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02646129998681747</v>
+        <v>0.03052783936665989</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4216701570.061491</v>
+        <v>4128796566.507716</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1951998592318774</v>
+        <v>0.2015023166104278</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02421564884091344</v>
+        <v>0.02677929222650413</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2189621137.081038</v>
+        <v>1770657047.877275</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1577241093131548</v>
+        <v>0.1534810176411611</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04168074347902968</v>
+        <v>0.03468136083172369</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1985072198.639998</v>
+        <v>2056372371.796314</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1139100081202634</v>
+        <v>0.09689242058860402</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03923980581051827</v>
+        <v>0.03838970102039271</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2377804775.743419</v>
+        <v>3637509436.773251</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1189699162005893</v>
+        <v>0.1456397501798644</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04178262549580509</v>
+        <v>0.03795826659344339</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2111360886.92903</v>
+        <v>2783502236.860922</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1536006217024405</v>
+        <v>0.1391375921588259</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01733745318691573</v>
+        <v>0.02283625242288312</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1208621593.093968</v>
+        <v>1328599745.760422</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1750613783499444</v>
+        <v>0.1606309289491733</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0436770171657827</v>
+        <v>0.03941184136499717</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3612399714.115977</v>
+        <v>2422410068.164506</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1463210117122928</v>
+        <v>0.157113184798859</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02568666379571864</v>
+        <v>0.02684951979656107</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3155842546.600292</v>
+        <v>2857320108.366611</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1126624998995336</v>
+        <v>0.116608487056722</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02606967229242017</v>
+        <v>0.02730418554318226</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1490114866.294276</v>
+        <v>1811263540.186055</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1291354847410089</v>
+        <v>0.09974839269079658</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05611889777906891</v>
+        <v>0.04017206479320416</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1960766689.221726</v>
+        <v>2048616786.47424</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1382660608855639</v>
+        <v>0.1413081006170797</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05113416199657071</v>
+        <v>0.04012508140903721</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2731822695.939691</v>
+        <v>1937759664.549532</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0817569639342112</v>
+        <v>0.07798510461160575</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04356053249032227</v>
+        <v>0.0454595643835218</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4105097817.091602</v>
+        <v>4467113560.26783</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1092537608085272</v>
+        <v>0.1112268799725397</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04569803515381671</v>
+        <v>0.03817265060454067</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2150248868.408442</v>
+        <v>2064346447.137778</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1643916021108003</v>
+        <v>0.1632720133231408</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0304867255716307</v>
+        <v>0.03825609793185523</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2675745282.185542</v>
+        <v>3141320473.290927</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1005125972595563</v>
+        <v>0.1367568147485568</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04679869375843578</v>
+        <v>0.03496631721421795</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2336075826.644235</v>
+        <v>2238279107.252383</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1102820222101969</v>
+        <v>0.1283306993085047</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03328858328067821</v>
+        <v>0.0425108127689236</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4794216942.240244</v>
+        <v>4243124606.328181</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1111244778930302</v>
+        <v>0.1308439115362029</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02689602535645027</v>
+        <v>0.02190199266481932</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3764225111.091729</v>
+        <v>3623041387.866308</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1144749438222533</v>
+        <v>0.1225433671870113</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01976378337374182</v>
+        <v>0.02137956672221756</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2992268832.112144</v>
+        <v>2567368211.662918</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1233261026532698</v>
+        <v>0.1081919540471618</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0292735403981118</v>
+        <v>0.02184469087851191</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4456233248.742093</v>
+        <v>4051515543.815167</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1478637733414338</v>
+        <v>0.1662698692219515</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02238392442821422</v>
+        <v>0.01817628619581832</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2207026283.018023</v>
+        <v>2497240422.733813</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2231768469938848</v>
+        <v>0.1670465628018302</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05516488154321326</v>
+        <v>0.04258691995295098</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_71.xlsx
+++ b/output/fit_clients/fit_round_71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1524585345.433059</v>
+        <v>1557582759.090947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07786314544623199</v>
+        <v>0.1107911171564491</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03602392796351112</v>
+        <v>0.03974985930783524</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1673943009.671597</v>
+        <v>2098501406.855867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1250415897716053</v>
+        <v>0.1542661911419374</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04452643976968167</v>
+        <v>0.03311261080361824</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3978130591.422196</v>
+        <v>4159220118.590682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1286244113365409</v>
+        <v>0.1277462848739761</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03122798003907939</v>
+        <v>0.03426601431521589</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47</v>
+      </c>
+      <c r="J4" t="n">
+        <v>71</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4042184058.04712</v>
+        <v>2880470126.656843</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1062023925123924</v>
+        <v>0.08420085532593968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05054740247170281</v>
+        <v>0.03415903237313422</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>70</v>
+      </c>
+      <c r="K5" t="n">
+        <v>104.5380314955555</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1989710181.654155</v>
+        <v>2307148358.002808</v>
       </c>
       <c r="F6" t="n">
-        <v>0.128275870642313</v>
+        <v>0.1269019171737659</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05659116845787886</v>
+        <v>0.03633707727046331</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1914501972.076703</v>
+        <v>2375289236.722256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09453790632396263</v>
+        <v>0.08679356479292817</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04951229528948187</v>
+        <v>0.03117187205328946</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2760179375.205821</v>
+        <v>3362584385.312027</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2048587964977993</v>
+        <v>0.1890913267238012</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03332915589617844</v>
+        <v>0.02158726082871455</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2016942781.190138</v>
+        <v>1940358968.822011</v>
       </c>
       <c r="F9" t="n">
-        <v>0.174691161996756</v>
+        <v>0.1238605497276908</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02434532964869627</v>
+        <v>0.03361667720871844</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3684337698.754558</v>
+        <v>3602970550.465832</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1589358310597587</v>
+        <v>0.2013908126644947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04515921179092</v>
+        <v>0.05105658677845919</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66</v>
+      </c>
+      <c r="J10" t="n">
+        <v>70</v>
+      </c>
+      <c r="K10" t="n">
+        <v>169.1339133753994</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3996083298.839821</v>
+        <v>3846602706.110562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1185458847415204</v>
+        <v>0.1869002846653524</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03449077783084034</v>
+        <v>0.03039865232715356</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" t="n">
+        <v>71</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2354884320.328369</v>
+        <v>2556942998.283353</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1674132487399315</v>
+        <v>0.1841420339260103</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04577340150647942</v>
+        <v>0.03929222332270809</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4833214249.331289</v>
+        <v>3687459200.507119</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08631477779143489</v>
+        <v>0.07872767631238839</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02790451512103224</v>
+        <v>0.02245857386442646</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>36</v>
+      </c>
+      <c r="J13" t="n">
+        <v>71</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2359027354.313995</v>
+        <v>3489433674.978917</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1140904982617307</v>
+        <v>0.1585828959124452</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03333006191207509</v>
+        <v>0.02973018226250969</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>71</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1503351022.623431</v>
+        <v>1473538753.346571</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1090227276997971</v>
+        <v>0.07284427110074825</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04194183083630187</v>
+        <v>0.046627156673749</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2431095652.90253</v>
+        <v>2545338924.364684</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09359560025773664</v>
+        <v>0.08281644732404679</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05183555065816694</v>
+        <v>0.04261818288443014</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4869142646.952877</v>
+        <v>3256316989.783697</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1199870204101842</v>
+        <v>0.1492734564785602</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0416343141289849</v>
+        <v>0.03953147213661779</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>34</v>
+      </c>
+      <c r="J17" t="n">
+        <v>69</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2456514466.307598</v>
+        <v>3363450422.737041</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1263215731538268</v>
+        <v>0.1467534845824807</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02203093962102669</v>
+        <v>0.02227701670615158</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>70</v>
+      </c>
+      <c r="K18" t="n">
+        <v>127.3093705277947</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1074648126.148044</v>
+        <v>1207933451.308884</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1791836835354036</v>
+        <v>0.1383518364892261</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02098735235673629</v>
+        <v>0.02608593620893863</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1890794486.291018</v>
+        <v>2532860860.799896</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1062254563548765</v>
+        <v>0.1390042432753553</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02932564436427455</v>
+        <v>0.02799787871252128</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2206106950.990511</v>
+        <v>2151576970.911833</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06403431523195445</v>
+        <v>0.07896120897700763</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04005597705627895</v>
+        <v>0.03240928694423454</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2807738578.05117</v>
+        <v>3608780172.457022</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09403693430302716</v>
+        <v>0.1384316076128432</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05168015864964954</v>
+        <v>0.04005971096298541</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>70</v>
+      </c>
+      <c r="K22" t="n">
+        <v>135.0975416350937</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1277727157.829552</v>
+        <v>1485093427.755603</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1430625211596874</v>
+        <v>0.1598243584616458</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03842315061755865</v>
+        <v>0.05311948875869716</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4101278854.892341</v>
+        <v>3584489444.633363</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1117159507459705</v>
+        <v>0.116448814750797</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03011066264563835</v>
+        <v>0.0228784395776084</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>70</v>
+      </c>
+      <c r="K24" t="n">
+        <v>140.3074134639609</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1453752298.745975</v>
+        <v>976371831.8901218</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09606523812802305</v>
+        <v>0.1162631162660037</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02019674695031829</v>
+        <v>0.0285800178719262</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1443624366.055185</v>
+        <v>1285221727.06287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09394384691082534</v>
+        <v>0.07656640613478917</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03184223705404111</v>
+        <v>0.03827381216266381</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3754693109.163313</v>
+        <v>3763598382.238799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.136480395277133</v>
+        <v>0.1401350362356545</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01853732508414304</v>
+        <v>0.02347259694457141</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="n">
+        <v>71</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2359918763.656683</v>
+        <v>2806693966.066483</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09152533342768504</v>
+        <v>0.1366768682187205</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03435304703593902</v>
+        <v>0.0449119983282705</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" t="n">
+        <v>68</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5174411783.437519</v>
+        <v>3975770577.300288</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09712222593584646</v>
+        <v>0.1041176391944295</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03301808536067481</v>
+        <v>0.03716038096484998</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>65</v>
+      </c>
+      <c r="J29" t="n">
+        <v>71</v>
+      </c>
+      <c r="K29" t="n">
+        <v>213.0048764316439</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1457240792.879205</v>
+        <v>2097867200.716718</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1307781504242299</v>
+        <v>0.124241585309618</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04029104101795481</v>
+        <v>0.03230284895939113</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>937472984.6773707</v>
+        <v>1342933398.562831</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1088339753757173</v>
+        <v>0.08980455100557048</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04312585978552837</v>
+        <v>0.03917054988762283</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1147041100.183356</v>
+        <v>1191861902.947342</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1171397869355449</v>
+        <v>0.1062728970639882</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03714108573433033</v>
+        <v>0.03477950573496952</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2229321804.565507</v>
+        <v>2486798853.095565</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1552571090333399</v>
+        <v>0.2012211319501176</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05642416062057829</v>
+        <v>0.04860064929571818</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1547595175.008177</v>
+        <v>964233682.9724209</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1173100324513695</v>
+        <v>0.1141864567795554</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0277644880789153</v>
+        <v>0.02433688724016215</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1157763073.05397</v>
+        <v>1024790027.58048</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1079024881515215</v>
+        <v>0.1162565072048473</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03353286762987789</v>
+        <v>0.02762500640594455</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2618146484.423292</v>
+        <v>2517673922.612463</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1178227196828547</v>
+        <v>0.1719416822920262</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02645927504978516</v>
+        <v>0.02665649460746328</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1913888980.693327</v>
+        <v>1921309070.780085</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09330519275253479</v>
+        <v>0.09865463422897257</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02834408113105939</v>
+        <v>0.0423032587044303</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1914891832.384314</v>
+        <v>2116222645.83911</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1072979534356353</v>
+        <v>0.08837107557900704</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02894455126996887</v>
+        <v>0.03100896507086312</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2139333853.637725</v>
+        <v>1534243774.546216</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1319881344244321</v>
+        <v>0.1371748484256517</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02986801017208794</v>
+        <v>0.03249000219657353</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1430393706.716915</v>
+        <v>1514597106.61506</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1505302183107689</v>
+        <v>0.1499776932663165</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05155122304202713</v>
+        <v>0.05185512275178179</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2396841014.624353</v>
+        <v>2647389974.105497</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1122911017831408</v>
+        <v>0.1014634000490095</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03686024762110105</v>
+        <v>0.04217521468756234</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2788683433.721327</v>
+        <v>2801164489.649517</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07802022190288765</v>
+        <v>0.09369051488242015</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0420353378433849</v>
+        <v>0.04582563379341278</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>70</v>
+      </c>
+      <c r="K42" t="n">
+        <v>89.92141242488196</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2376281107.613063</v>
+        <v>2225992859.822082</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1629397089265531</v>
+        <v>0.1303212098634958</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02574811342115556</v>
+        <v>0.01686174237900368</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2127000679.471271</v>
+        <v>1708173955.648486</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09598442117263437</v>
+        <v>0.07542720980929903</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03612454049627112</v>
+        <v>0.03351863149266766</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2365044170.630824</v>
+        <v>2457618189.91832</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1534903446864817</v>
+        <v>0.1741559909551399</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04063844074130544</v>
+        <v>0.03575167042623497</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3772844777.897222</v>
+        <v>3955981339.007915</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1468368948828562</v>
+        <v>0.122679190697649</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04147380883163297</v>
+        <v>0.04838843444781773</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>42</v>
+      </c>
+      <c r="J46" t="n">
+        <v>70</v>
+      </c>
+      <c r="K46" t="n">
+        <v>179.6550706216406</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4197865369.814329</v>
+        <v>4296358380.241789</v>
       </c>
       <c r="F47" t="n">
-        <v>0.160878200060931</v>
+        <v>0.1320093908205256</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03749268439107016</v>
+        <v>0.05615486204904351</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>31</v>
+      </c>
+      <c r="J47" t="n">
+        <v>71</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3729401110.778355</v>
+        <v>4718406690.604052</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08736876646134842</v>
+        <v>0.1000424131471281</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02552129617598654</v>
+        <v>0.02945230282018079</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>70</v>
+      </c>
+      <c r="K48" t="n">
+        <v>185.8739660290018</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1564943895.135342</v>
+        <v>1649629005.42914</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1790323958733812</v>
+        <v>0.1378443907187163</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04231794734179587</v>
+        <v>0.02844781459823995</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4093602017.9188</v>
+        <v>2749390256.349071</v>
       </c>
       <c r="F50" t="n">
-        <v>0.153364280727791</v>
+        <v>0.1290118239846009</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03773510679008818</v>
+        <v>0.04805328600703695</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>69</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1201585784.655967</v>
+        <v>1453260086.392706</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1203832778487527</v>
+        <v>0.173142433051612</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03538757222851999</v>
+        <v>0.04373811235652687</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4907653938.356618</v>
+        <v>3445683690.355844</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1292551899533544</v>
+        <v>0.1108102774896967</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05264265371374274</v>
+        <v>0.05379375360275264</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>56</v>
+      </c>
+      <c r="J52" t="n">
+        <v>71</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3542506665.987855</v>
+        <v>3192665985.226413</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1589618694336928</v>
+        <v>0.1848635507277044</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02930624879168014</v>
+        <v>0.02231473490136508</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3394390139.234735</v>
+        <v>3786812858.418629</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1663401596552906</v>
+        <v>0.1624392464355037</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04886517255208077</v>
+        <v>0.05288200561571282</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>31</v>
+      </c>
+      <c r="J54" t="n">
+        <v>71</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3552194500.452201</v>
+        <v>3073665804.270804</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2097203410928614</v>
+        <v>0.1524517483900217</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03059475176264064</v>
+        <v>0.02987313235890533</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>33</v>
+      </c>
+      <c r="J55" t="n">
+        <v>70</v>
+      </c>
+      <c r="K55" t="n">
+        <v>97.65337166624947</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1831987649.335261</v>
+        <v>1622864271.30685</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1110491024802694</v>
+        <v>0.119320683052179</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04801831177845208</v>
+        <v>0.05568067347300015</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3937110332.628359</v>
+        <v>4256256170.851256</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1174582619554273</v>
+        <v>0.1815253669381748</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02315875866346499</v>
+        <v>0.02480519626280281</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>70</v>
+      </c>
+      <c r="K57" t="n">
+        <v>176.3811105708657</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1738384992.791758</v>
+        <v>1370547323.381902</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1879044582019947</v>
+        <v>0.1252906477182765</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03190973572947844</v>
+        <v>0.03436711795561101</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3629019627.116365</v>
+        <v>3657481984.101649</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08187426376905063</v>
+        <v>0.1185770982555625</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04457061607584577</v>
+        <v>0.03816057039215776</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>34</v>
+      </c>
+      <c r="J59" t="n">
+        <v>71</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3208457381.810421</v>
+        <v>2441202779.487276</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1248405115920474</v>
+        <v>0.2041420622814194</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02224754701497396</v>
+        <v>0.02763204465468477</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2266295520.38846</v>
+        <v>3330718014.896361</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1313332849619988</v>
+        <v>0.1494591640939326</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02832534409900603</v>
+        <v>0.0275857408253954</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1414138656.057846</v>
+        <v>1657959895.117281</v>
       </c>
       <c r="F62" t="n">
-        <v>0.168833555447871</v>
+        <v>0.1228576108163519</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04532299982660338</v>
+        <v>0.03576066496382423</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4190506047.038858</v>
+        <v>4774755094.826604</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09691498621101681</v>
+        <v>0.09542874346936969</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03135368526592373</v>
+        <v>0.03189006117359266</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>35</v>
+      </c>
+      <c r="J63" t="n">
+        <v>70</v>
+      </c>
+      <c r="K63" t="n">
+        <v>170.1410102630729</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4944865803.349137</v>
+        <v>4047338391.681674</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1544982713983745</v>
+        <v>0.1737238933752895</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02964043121295134</v>
+        <v>0.03124351379982964</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>35</v>
+      </c>
+      <c r="J64" t="n">
+        <v>70</v>
+      </c>
+      <c r="K64" t="n">
+        <v>175.139247648306</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5481741586.150698</v>
+        <v>5469301233.203001</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1208879195775873</v>
+        <v>0.12418788630198</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02609051577132691</v>
+        <v>0.02649937035044726</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>56</v>
+      </c>
+      <c r="J65" t="n">
+        <v>71</v>
+      </c>
+      <c r="K65" t="n">
+        <v>186.4880373486636</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4329539790.735537</v>
+        <v>4899022147.717783</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1314251379015559</v>
+        <v>0.1227792652784312</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03982314572799043</v>
+        <v>0.03699047162917415</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>35</v>
+      </c>
+      <c r="J66" t="n">
+        <v>70</v>
+      </c>
+      <c r="K66" t="n">
+        <v>174.5311147588857</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2198973136.382647</v>
+        <v>2669465582.67206</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07584987295731001</v>
+        <v>0.1032950717053179</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04667998051456225</v>
+        <v>0.04798044448293066</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4505741552.210798</v>
+        <v>5114052858.956701</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1532465395495851</v>
+        <v>0.1548816995871779</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04776240441843477</v>
+        <v>0.04331499198759223</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>35</v>
+      </c>
+      <c r="J68" t="n">
+        <v>71</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2086033018.159401</v>
+        <v>2051966339.112567</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1263009343220724</v>
+        <v>0.1294581510224</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05451637205934987</v>
+        <v>0.04077064377383273</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3690957964.213103</v>
+        <v>2442844651.38153</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07777808670677802</v>
+        <v>0.07180474590509177</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04023981851852475</v>
+        <v>0.04043406689197307</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3426737975.322429</v>
+        <v>4814444671.303672</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1234057839794662</v>
+        <v>0.1828809890006088</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0230110653326606</v>
+        <v>0.03164790333542773</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>58</v>
+      </c>
+      <c r="J71" t="n">
+        <v>71</v>
+      </c>
+      <c r="K71" t="n">
+        <v>188.0284781754411</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2124577695.307127</v>
+        <v>1977505566.743714</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1009786328843797</v>
+        <v>0.1058013150708493</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03934410065842583</v>
+        <v>0.04543268577801057</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3117781915.922625</v>
+        <v>3550155368.144916</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07309763035167999</v>
+        <v>0.1038079398673289</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03961948502997627</v>
+        <v>0.03408565587084512</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3109506657.758109</v>
+        <v>2757864635.890349</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1393311279631872</v>
+        <v>0.155489537182669</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02786538216034251</v>
+        <v>0.02954295746213428</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>69</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1537488894.937863</v>
+        <v>1641492212.837833</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1483826372008243</v>
+        <v>0.1615780727584619</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02601172635750101</v>
+        <v>0.03265761971642097</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4339589515.81755</v>
+        <v>4214606528.96129</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09018746249380855</v>
+        <v>0.1150247892660376</v>
       </c>
       <c r="G76" t="n">
-        <v>0.025929452355268</v>
+        <v>0.02790700987300584</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>32</v>
+      </c>
+      <c r="J76" t="n">
+        <v>71</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1420819210.660516</v>
+        <v>1796873135.141558</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1525278595209991</v>
+        <v>0.1633583128266772</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02260706217327813</v>
+        <v>0.02488880292306123</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3422062723.106059</v>
+        <v>4067322782.763944</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1110618409729967</v>
+        <v>0.1204913180032901</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05171966669581005</v>
+        <v>0.03458188843771689</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>32</v>
+      </c>
+      <c r="J78" t="n">
+        <v>71</v>
+      </c>
+      <c r="K78" t="n">
+        <v>190.6067475243622</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1708389829.717175</v>
+        <v>1360781401.617121</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1114588520352197</v>
+        <v>0.1237698344743932</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03542641664656263</v>
+        <v>0.03940764157632709</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5002347033.113072</v>
+        <v>4583801370.645453</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09101158986867579</v>
+        <v>0.108962607924441</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03032500410807112</v>
+        <v>0.0300825890954973</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>34</v>
+      </c>
+      <c r="J80" t="n">
+        <v>71</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3858805680.01519</v>
+        <v>4589101559.759057</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08488521618234432</v>
+        <v>0.08908168787175497</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03052783936665989</v>
+        <v>0.02966794508183711</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>32</v>
+      </c>
+      <c r="J81" t="n">
+        <v>70</v>
+      </c>
+      <c r="K81" t="n">
+        <v>148.2969405429856</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4128796566.507716</v>
+        <v>4600814766.486493</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2015023166104278</v>
+        <v>0.1914254905430667</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02677929222650413</v>
+        <v>0.0267922532499154</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>43</v>
+      </c>
+      <c r="J82" t="n">
+        <v>71</v>
+      </c>
+      <c r="K82" t="n">
+        <v>192.815318227597</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1770657047.877275</v>
+        <v>2105249186.311602</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1534810176411611</v>
+        <v>0.1199758798666292</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03468136083172369</v>
+        <v>0.04117786242384466</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2056372371.796314</v>
+        <v>2491818038.783777</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09689242058860402</v>
+        <v>0.1014458633218259</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03838970102039271</v>
+        <v>0.04454927649293841</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3637509436.773251</v>
+        <v>3397045925.071547</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1456397501798644</v>
+        <v>0.1581378102474393</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03795826659344339</v>
+        <v>0.04095325465656738</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2783502236.860922</v>
+        <v>2113417822.179546</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1391375921588259</v>
+        <v>0.1384195020676966</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02283625242288312</v>
+        <v>0.01897691299701858</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1328599745.760422</v>
+        <v>1082359235.14187</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1606309289491733</v>
+        <v>0.1565601190689346</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03941184136499717</v>
+        <v>0.03883566450175875</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2422410068.164506</v>
+        <v>2823213202.754123</v>
       </c>
       <c r="F88" t="n">
-        <v>0.157113184798859</v>
+        <v>0.1369452798059028</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02684951979656107</v>
+        <v>0.02953538317687135</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2857320108.366611</v>
+        <v>2501994032.929029</v>
       </c>
       <c r="F89" t="n">
-        <v>0.116608487056722</v>
+        <v>0.1421790616003058</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02730418554318226</v>
+        <v>0.03568179589917432</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1811263540.186055</v>
+        <v>1314301927.800161</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09974839269079658</v>
+        <v>0.1196824806614974</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04017206479320416</v>
+        <v>0.04778305444188261</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2048616786.47424</v>
+        <v>1647527833.083799</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1413081006170797</v>
+        <v>0.1792548645095975</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04012508140903721</v>
+        <v>0.03741990732863631</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1937759664.549532</v>
+        <v>2414944127.403129</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07798510461160575</v>
+        <v>0.1023573953372288</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0454595643835218</v>
+        <v>0.03592156227789618</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4467113560.26783</v>
+        <v>3785427072.066107</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1112268799725397</v>
+        <v>0.1353117333084458</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03817265060454067</v>
+        <v>0.0511938363763037</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>32</v>
+      </c>
+      <c r="J93" t="n">
+        <v>70</v>
+      </c>
+      <c r="K93" t="n">
+        <v>151.4853177557241</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2064346447.137778</v>
+        <v>2290093430.011437</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1632720133231408</v>
+        <v>0.1047408404964062</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03825609793185523</v>
+        <v>0.03435354158828165</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3141320473.290927</v>
+        <v>3196487436.227574</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1367568147485568</v>
+        <v>0.1281791038496314</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03496631721421795</v>
+        <v>0.05214016258208602</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2238279107.252383</v>
+        <v>2026775858.137683</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1283306993085047</v>
+        <v>0.1037591397151078</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0425108127689236</v>
+        <v>0.03490955508200711</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4243124606.328181</v>
+        <v>4860507023.230343</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1308439115362029</v>
+        <v>0.1418294746630177</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02190199266481932</v>
+        <v>0.02907580244107237</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>34</v>
+      </c>
+      <c r="J97" t="n">
+        <v>71</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3623041387.866308</v>
+        <v>3284378732.16835</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1225433671870113</v>
+        <v>0.1223141242952796</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02137956672221756</v>
+        <v>0.02658903218770057</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2567368211.662918</v>
+        <v>3104417568.297429</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1081919540471618</v>
+        <v>0.1152651334703789</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02184469087851191</v>
+        <v>0.02336491077366614</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4051515543.815167</v>
+        <v>4413839073.871374</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1662698692219515</v>
+        <v>0.1213442063830278</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01817628619581832</v>
+        <v>0.02019869636358715</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>29</v>
+      </c>
+      <c r="J100" t="n">
+        <v>71</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2497240422.733813</v>
+        <v>3418290695.331631</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1670465628018302</v>
+        <v>0.2061830686640804</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04258691995295098</v>
+        <v>0.04591347740382362</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
